--- a/biology/Botanique/Concepción_Sáenz_de_Rivas/Concepción_Sáenz_de_Rivas.xlsx
+++ b/biology/Botanique/Concepción_Sáenz_de_Rivas/Concepción_Sáenz_de_Rivas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Concepci%C3%B3n_S%C3%A1enz_de_Rivas</t>
+          <t>Concepción_Sáenz_de_Rivas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Concepción Sáenz de Rivas, née en 1935, est une botaniste espagnole.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Concepci%C3%B3n_S%C3%A1enz_de_Rivas</t>
+          <t>Concepción_Sáenz_de_Rivas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(es) Concepción Sáenz de Rivas, Polen y esporas (introducción a la Palinología y Vocabulario palinológico), H. Blume Ediciones, 1978, 219 p. (ISBN 978-84-7214-152-0, OCLC 433116573, lire en ligne)
 (es) Concepción Saenz de Rivas et Instituto Botánico Antonio José Cavanilles, Biometria foliar de una población de Quercus ilex L. subsp. rotundifolia (Lam.) T. Morais, en El Pardo (Madrid), Instituto Botánico A. J. Cavanilles, 1969 (OCLC 919769498, lire en ligne)
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Concepci%C3%B3n_S%C3%A1enz_de_Rivas</t>
+          <t>Concepción_Sáenz_de_Rivas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Taxons publiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a décrit et nommé 19 taxons de plantes différents[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle a décrit et nommé 19 taxons de plantes différents :
 Cheilanthes subgen. Cosentinia Sáenz de Rivas &amp; Rivas Mart., Lagascalia 8(2): 237 (1979).
 Cheilanthes sect. Hispanica Sáenz de Rivas &amp; Rivas Mart., Lagascalia 8(2): 230 (1979).
 Cheilanthes sect. Marantae Sáenz de Rivas &amp; Rivas Mart., Lagascalia 8(2): 235 (1979).
